--- a/CompiladorSyS/Tabla de simbolos .xlsx
+++ b/CompiladorSyS/Tabla de simbolos .xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwagner/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin PC\Documents\GitHub\sintaxisYSemantica2018\CompiladorSyS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E400AF64-25FB-4866-833F-2942ED7C06D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -198,6 +199,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -465,16 +469,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -574,7 +578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -624,7 +628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -674,12 +678,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -724,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -774,7 +778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -824,7 +828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -874,7 +878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -924,7 +928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -974,7 +978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1024,7 +1028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1074,7 +1078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1174,7 +1178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1324,7 +1328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
